--- a/untranslated/downloads/data-excel/10.2.1.xlsx
+++ b/untranslated/downloads/data-excel/10.2.1.xlsx
@@ -757,9 +757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -767,7 +769,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
@@ -778,7 +780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -789,7 +791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -799,8 +801,9 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -828,8 +831,11 @@
       <c r="I4" s="9">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="J4" s="9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>30</v>
       </c>
@@ -857,8 +863,11 @@
       <c r="I5" s="26">
         <v>4700.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="J5" s="6">
+        <v>5356.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
@@ -886,8 +895,11 @@
       <c r="I6" s="27">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>33</v>
       </c>
@@ -904,7 +916,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -932,8 +944,11 @@
       <c r="I8" s="28">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="2">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>36</v>
       </c>
@@ -961,8 +976,11 @@
       <c r="I9" s="28">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>72</v>
       </c>
@@ -979,7 +997,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="28"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -1007,8 +1025,11 @@
       <c r="I11" s="28">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="2">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
@@ -1036,8 +1057,11 @@
       <c r="I12" s="28">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>73</v>
       </c>
@@ -1054,7 +1078,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>61</v>
       </c>
@@ -1082,8 +1106,11 @@
       <c r="I14" s="28">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="2">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>62</v>
       </c>
@@ -1111,8 +1138,11 @@
       <c r="I15" s="28">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="2">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>67</v>
       </c>
@@ -1140,8 +1170,11 @@
       <c r="I16" s="28">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>68</v>
       </c>
@@ -1169,8 +1202,11 @@
       <c r="I17" s="28">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="2">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>74</v>
       </c>
@@ -1187,7 +1223,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="28"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
@@ -1215,8 +1251,11 @@
       <c r="I19" s="29">
         <v>11.755326439375899</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="28">
+        <v>12.434613462352335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
@@ -1244,8 +1283,11 @@
       <c r="I20" s="29">
         <v>18.008531163794252</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="28">
+        <v>16.80050595536094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>45</v>
       </c>
@@ -1273,8 +1315,11 @@
       <c r="I21" s="29">
         <v>12.860319584844115</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="28">
+        <v>11.282963378125267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>46</v>
       </c>
@@ -1302,8 +1347,11 @@
       <c r="I22" s="29">
         <v>27.855975107092345</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="28">
+        <v>25.042808754677555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
@@ -1331,8 +1379,11 @@
       <c r="I23" s="29">
         <v>3.8567050275050248</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="28">
+        <v>3.2011163356916352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>48</v>
       </c>
@@ -1360,8 +1411,11 @@
       <c r="I24" s="29">
         <v>12.700277251528242</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="28">
+        <v>13.523574517571838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
@@ -1389,8 +1443,11 @@
       <c r="I25" s="29">
         <v>6.543625743604494</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="28">
+        <v>6.1196997869329204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>50</v>
       </c>
@@ -1418,8 +1475,11 @@
       <c r="I26" s="29">
         <v>7.921875108777849</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="28">
+        <v>5.9488136666578013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>51</v>
       </c>
@@ -1446,6 +1506,9 @@
       </c>
       <c r="I27" s="30">
         <v>6.2551885850595959</v>
+      </c>
+      <c r="J27" s="30">
+        <v>5.2451982064110645</v>
       </c>
     </row>
   </sheetData>
